--- a/03_productos/02_descargable_sectores.xlsx
+++ b/03_productos/02_descargable_sectores.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t xml:space="preserve">sector</t>
+  </si>
   <si>
     <t xml:space="preserve">tipo</t>
   </si>
@@ -20,34 +23,55 @@
     <t xml:space="preserve">tot_general</t>
   </si>
   <si>
+    <t xml:space="preserve">tot_hombres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tot_mujeres</t>
+  </si>
+  <si>
     <t xml:space="preserve">prop_general</t>
   </si>
   <si>
-    <t xml:space="preserve">tot_Hombres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prop_Hombres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tot_Mujeres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prop_Mujeres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Población total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Población en edad de trabajar (15 años o más)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Población económicamente activa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ocupada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desocupada</t>
+    <t xml:space="preserve">prop_hombres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prop_mujeres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agricultura, ganadería, silvicultura, caza y pesca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Población ocupada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comercio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construcción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gobierno y organismos internacionales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industria extractiva y de la electricidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industria manufacturera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restaurantes y servicios de alojamiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servicios diversos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servicios profesionales, financieros y corporativos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servicios sociales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transportes, comunicaciones, correo y almacenamiento</t>
   </si>
   <si>
     <t xml:space="preserve">Población no subocupada</t>
@@ -56,27 +80,18 @@
     <t xml:space="preserve">Población subocupada</t>
   </si>
   <si>
-    <t xml:space="preserve">Población no económicamente activa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disponibles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No disponibles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tasa de participación laboral</t>
+    <t xml:space="preserve">Empleo formal</t>
   </si>
   <si>
     <t xml:space="preserve">Empleo informal</t>
   </si>
   <si>
-    <t xml:space="preserve">Pobreza laboral</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ingreso laboral promedio</t>
   </si>
   <si>
+    <t xml:space="preserve">Restaurantes y serviciosde alojamiento</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ingreso laboral promedio (Empleo formal)</t>
   </si>
   <si>
@@ -84,9 +99,6 @@
   </si>
   <si>
     <t xml:space="preserve">Horas trabajadas a la semana (promedio)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Horas trabajadas en tareas del hogar y de cuidados (no remunerado)</t>
   </si>
 </sst>
 </file>
@@ -440,386 +452,2319 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="n">
-        <v>127772520</v>
-      </c>
-      <c r="C2"/>
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6806797</v>
+      </c>
       <c r="D2" t="n">
-        <v>61572726</v>
+        <v>5839433</v>
       </c>
       <c r="E2" t="n">
-        <v>0.481893336689298</v>
+        <v>967364</v>
       </c>
       <c r="F2" t="n">
-        <v>66199794</v>
+        <v>0.120237615125386</v>
       </c>
       <c r="G2" t="n">
-        <v>0.518106663310703</v>
+        <v>0.170299184059382</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0433368929086888</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="n">
-        <v>98118371</v>
-      </c>
-      <c r="C3"/>
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11054847</v>
+      </c>
       <c r="D3" t="n">
-        <v>46458594</v>
+        <v>5279467</v>
       </c>
       <c r="E3" t="n">
-        <v>0.473495366122619</v>
+        <v>5775380</v>
       </c>
       <c r="F3" t="n">
-        <v>51659777</v>
+        <v>0.195276638756235</v>
       </c>
       <c r="G3" t="n">
-        <v>0.526504633877381</v>
+        <v>0.153968531254393</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.25873096845343</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="n">
-        <v>58307446</v>
-      </c>
       <c r="C4" t="n">
-        <v>0.594256156168757</v>
+        <v>4383957</v>
       </c>
       <c r="D4" t="n">
-        <v>35462690</v>
+        <v>4231885</v>
       </c>
       <c r="E4" t="n">
-        <v>0.763318192539361</v>
+        <v>152072</v>
       </c>
       <c r="F4" t="n">
-        <v>22844756</v>
+        <v>0.077439731858059</v>
       </c>
       <c r="G4" t="n">
-        <v>0.442215536470473</v>
+        <v>0.123417215769602</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.00681266615091127</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="n">
-        <v>55836230</v>
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>0.957617488510816</v>
+        <v>2216372</v>
       </c>
       <c r="D5" t="n">
-        <v>34000830</v>
+        <v>1316138</v>
       </c>
       <c r="E5" t="n">
-        <v>0.958777520825408</v>
+        <v>900234</v>
       </c>
       <c r="F5" t="n">
-        <v>21835400</v>
+        <v>0.0391507611451732</v>
       </c>
       <c r="G5" t="n">
-        <v>0.955816730981937</v>
+        <v>0.038383388851203</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0403295392951987</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2471216</v>
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0423825114891844</v>
+        <v>396500</v>
       </c>
       <c r="D6" t="n">
-        <v>1461860</v>
+        <v>328819</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0412224791745917</v>
+        <v>67681</v>
       </c>
       <c r="F6" t="n">
-        <v>1009356</v>
+        <v>0.00700391305884624</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0441832690180626</v>
+        <v>0.0095895624460837</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.00303203783576086</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="n">
-        <v>51093096</v>
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>0.876270519549081</v>
+        <v>9327585</v>
       </c>
       <c r="D7" t="n">
-        <v>31030556</v>
+        <v>5743883</v>
       </c>
       <c r="E7" t="n">
-        <v>0.875019802502292</v>
+        <v>3583702</v>
       </c>
       <c r="F7" t="n">
-        <v>20062540</v>
+        <v>0.164765685722568</v>
       </c>
       <c r="G7" t="n">
-        <v>0.878212050065232</v>
+        <v>0.167512597238902</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.160546092050825</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7214350</v>
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>0.123729480450919</v>
+        <v>4418211</v>
       </c>
       <c r="D8" t="n">
-        <v>4432134</v>
+        <v>1807194</v>
       </c>
       <c r="E8" t="n">
-        <v>0.124980197497708</v>
+        <v>2611017</v>
       </c>
       <c r="F8" t="n">
-        <v>2782216</v>
+        <v>0.0780448063546989</v>
       </c>
       <c r="G8" t="n">
-        <v>0.121787949934768</v>
+        <v>0.0527043744892716</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.11697082392126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="n">
-        <v>39810925</v>
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>0.405743843831243</v>
+        <v>5699913</v>
       </c>
       <c r="D9" t="n">
-        <v>10995904</v>
+        <v>2611108</v>
       </c>
       <c r="E9" t="n">
-        <v>0.236681807460639</v>
+        <v>3088805</v>
       </c>
       <c r="F9" t="n">
-        <v>28815021</v>
+        <v>0.100685233530864</v>
       </c>
       <c r="G9" t="n">
-        <v>0.557784463529527</v>
+        <v>0.0761494415452535</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.138375225355526</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="n">
-        <v>7752876</v>
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.194742423091149</v>
+        <v>4357477</v>
       </c>
       <c r="D10" t="n">
-        <v>2989653</v>
+        <v>2699978</v>
       </c>
       <c r="E10" t="n">
-        <v>0.271887877522394</v>
+        <v>1657499</v>
       </c>
       <c r="F10" t="n">
-        <v>4763223</v>
+        <v>0.0769719799846712</v>
       </c>
       <c r="G10" t="n">
-        <v>0.165303471408194</v>
+        <v>0.0787412151793302</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0742542172948951</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="n">
-        <v>32058049</v>
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.805257576908851</v>
+        <v>4760072</v>
       </c>
       <c r="D11" t="n">
-        <v>8006251</v>
+        <v>1739591</v>
       </c>
       <c r="E11" t="n">
-        <v>0.728112122477606</v>
+        <v>3020481</v>
       </c>
       <c r="F11" t="n">
-        <v>24051798</v>
+        <v>0.0840835572303868</v>
       </c>
       <c r="G11" t="n">
-        <v>0.834696528591806</v>
+        <v>0.0507328242137626</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.135314381793957</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="n">
-        <v>59.4256156168757</v>
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>0.594256156168757</v>
+        <v>2833575</v>
       </c>
       <c r="D12" t="n">
-        <v>76.3318192539361</v>
+        <v>2435158</v>
       </c>
       <c r="E12" t="n">
-        <v>0.763318192539361</v>
+        <v>398417</v>
       </c>
       <c r="F12" t="n">
-        <v>44.2215536470473</v>
+        <v>0.0500532482868102</v>
       </c>
       <c r="G12" t="n">
-        <v>0.442215536470473</v>
+        <v>0.07101809721178</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0178486638555922</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="n">
-        <v>31434243</v>
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
       </c>
       <c r="C13" t="n">
-        <v>0.562972159832424</v>
+        <v>6072038</v>
       </c>
       <c r="D13" t="n">
-        <v>19154941</v>
+        <v>5196030</v>
       </c>
       <c r="E13" t="n">
-        <v>0.563366864867711</v>
+        <v>876008</v>
       </c>
       <c r="F13" t="n">
-        <v>12279302</v>
+        <v>0.892055103156448</v>
       </c>
       <c r="G13" t="n">
-        <v>0.562357547835167</v>
+        <v>0.889817555916816</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.905561918781348</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="n">
-        <v>42095644</v>
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
       </c>
       <c r="C14" t="n">
-        <v>0.388845676777001</v>
+        <v>734759</v>
       </c>
       <c r="D14" t="n">
-        <v>19228086</v>
+        <v>643403</v>
       </c>
       <c r="E14" t="n">
-        <v>0.369412164091811</v>
+        <v>91356</v>
       </c>
       <c r="F14" t="n">
-        <v>22867558</v>
+        <v>0.107944896843552</v>
       </c>
       <c r="G14" t="n">
-        <v>0.40684192971056</v>
+        <v>0.110182444083184</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0944380812186519</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="n">
-        <v>7342.1388086456</v>
-      </c>
-      <c r="C15"/>
+      <c r="C15" t="n">
+        <v>9704855</v>
+      </c>
       <c r="D15" t="n">
-        <v>7816.3692584901</v>
-      </c>
-      <c r="E15"/>
+        <v>4699984</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5004871</v>
+      </c>
       <c r="F15" t="n">
-        <v>6581.3017742767</v>
-      </c>
-      <c r="G15"/>
+        <v>0.877882344278487</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.890238351712398</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.866587306809249</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="n">
-        <v>9946.13737955407</v>
-      </c>
-      <c r="C16"/>
+      <c r="C16" t="n">
+        <v>1349992</v>
+      </c>
       <c r="D16" t="n">
-        <v>10450.1263504302</v>
-      </c>
-      <c r="E16"/>
+        <v>579483</v>
+      </c>
+      <c r="E16" t="n">
+        <v>770509</v>
+      </c>
       <c r="F16" t="n">
-        <v>9166.37898750879</v>
-      </c>
-      <c r="G16"/>
+        <v>0.122117655721513</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.109761648287602</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.133412693190751</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n">
-        <v>5204.65880016264</v>
-      </c>
-      <c r="C17"/>
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3821680</v>
+      </c>
       <c r="D17" t="n">
-        <v>5708.92405044386</v>
-      </c>
-      <c r="E17"/>
+        <v>3678583</v>
+      </c>
+      <c r="E17" t="n">
+        <v>143097</v>
+      </c>
       <c r="F17" t="n">
-        <v>4370.97779083908</v>
-      </c>
-      <c r="G17"/>
+        <v>0.871742127032724</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.869254008556471</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.940981903308959</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n">
-        <v>39.1154970155956</v>
-      </c>
-      <c r="C18"/>
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="n">
+        <v>562277</v>
+      </c>
       <c r="D18" t="n">
-        <v>41.7722484109355</v>
-      </c>
-      <c r="E18"/>
+        <v>553302</v>
+      </c>
+      <c r="E18" t="n">
+        <v>8975</v>
+      </c>
       <c r="F18" t="n">
-        <v>34.9913316649125</v>
-      </c>
-      <c r="G18"/>
+        <v>0.128257872967276</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.130745991443529</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0590180966910411</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2129574</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1281863</v>
+      </c>
+      <c r="E19" t="n">
+        <v>847711</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.960837801596483</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.973957898031969</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.941656280478187</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="n">
+        <v>86798</v>
+      </c>
+      <c r="D20" t="n">
+        <v>34275</v>
+      </c>
+      <c r="E20" t="n">
+        <v>52523</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0391621984035171</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0260421019680307</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.0583437195218132</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>387282</v>
+      </c>
+      <c r="D21" t="n">
+        <v>321352</v>
+      </c>
+      <c r="E21" t="n">
+        <v>65930</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.97675157629256</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.977291458218655</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.974128632851169</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>9218</v>
+      </c>
+      <c r="D22" t="n">
+        <v>7467</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1751</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0232484237074401</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0227085417813448</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0258713671488305</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="n">
+        <v>8536105</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5276878</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3259227</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.915146310647397</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.918695245011084</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.909458152491474</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="n">
+        <v>791480</v>
+      </c>
+      <c r="D24" t="n">
+        <v>467005</v>
+      </c>
+      <c r="E24" t="n">
+        <v>324475</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0848536893526031</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.081304754988916</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.0905418475085261</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3884721</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1596655</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2288066</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.879252032100776</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.883499502543722</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.876312180273051</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="n">
+        <v>533490</v>
+      </c>
+      <c r="D26" t="n">
+        <v>210539</v>
+      </c>
+      <c r="E26" t="n">
+        <v>322951</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.120747967899224</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.116500497456278</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.123687819726949</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4832860</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2149223</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2683637</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.847883116812485</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.823107661575086</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.86882694116333</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="n">
+        <v>867053</v>
+      </c>
+      <c r="D28" t="n">
+        <v>461885</v>
+      </c>
+      <c r="E28" t="n">
+        <v>405168</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.152116883187515</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.176892338424914</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.13117305883667</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3955622</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2422071</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1533551</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.90777805597138</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.89707064279783</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.925219864386042</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="n">
+        <v>401855</v>
+      </c>
+      <c r="D30" t="n">
+        <v>277907</v>
+      </c>
+      <c r="E30" t="n">
+        <v>123948</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0922219440286202</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.10292935720217</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0747801356139581</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4420995</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1595137</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2825858</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.928766413617273</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.916960940818848</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.935565560584556</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" t="n">
+        <v>339077</v>
+      </c>
+      <c r="D32" t="n">
+        <v>144454</v>
+      </c>
+      <c r="E32" t="n">
+        <v>194623</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.071233586382727</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0830390591811524</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.0644344394154441</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2532323</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2158610</v>
+      </c>
+      <c r="E33" t="n">
+        <v>373713</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.893684832764264</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.886435294958274</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.937994613683653</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="n">
+        <v>301252</v>
+      </c>
+      <c r="D34" t="n">
+        <v>276548</v>
+      </c>
+      <c r="E34" t="n">
+        <v>24704</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.106315167235736</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.113564705041726</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0620053863163469</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" t="n">
+        <v>863171</v>
+      </c>
+      <c r="D35" t="n">
+        <v>737744</v>
+      </c>
+      <c r="E35" t="n">
+        <v>125427</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.126810157552811</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.126338293461026</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.129658535980251</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" t="n">
+        <v>5943626</v>
+      </c>
+      <c r="D36" t="n">
+        <v>5101689</v>
+      </c>
+      <c r="E36" t="n">
+        <v>841937</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.873189842447189</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.873661706538974</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.870341464019749</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" t="n">
+        <v>4399151</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2567740</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1831411</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.397938659847576</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.486363490859967</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.317106579999931</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" t="n">
+        <v>6655696</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2711727</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3943969</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.602061340152424</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.513636509140033</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.682893420000069</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" t="n">
+        <v>854313</v>
+      </c>
+      <c r="D39" t="n">
+        <v>748178</v>
+      </c>
+      <c r="E39" t="n">
+        <v>106135</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.194872577445445</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.176795446946219</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.697925982429376</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3529644</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3483707</v>
+      </c>
+      <c r="E40" t="n">
+        <v>45937</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.805127422554555</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.823204553053781</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.302074017570624</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1842275</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1092931</v>
+      </c>
+      <c r="E41" t="n">
+        <v>749344</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.831211998707798</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.830407601634479</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.832388023558319</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" t="n">
+        <v>374097</v>
+      </c>
+      <c r="D42" t="n">
+        <v>223207</v>
+      </c>
+      <c r="E42" t="n">
+        <v>150890</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.168788001292202</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.169592398365521</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.167611976441681</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" t="n">
+        <v>353992</v>
+      </c>
+      <c r="D43" t="n">
+        <v>292305</v>
+      </c>
+      <c r="E43" t="n">
+        <v>61687</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.892791929382093</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.888954105450111</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.911437478760657</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42508</v>
+      </c>
+      <c r="D44" t="n">
+        <v>36514</v>
+      </c>
+      <c r="E44" t="n">
+        <v>5994</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.107208070617907</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.111045894549889</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.0885625212393434</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" t="n">
+        <v>5913935</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3898554</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2015381</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.634026385179015</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.678731443520002</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.562374047842148</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3413650</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1845329</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1568321</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.365973614820985</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.321268556479998</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.437625952157852</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1216741</v>
+      </c>
+      <c r="D47" t="n">
+        <v>687751</v>
+      </c>
+      <c r="E47" t="n">
+        <v>528990</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.275392234549233</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.380562905808674</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.202599217086675</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3201470</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1119443</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2082027</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.724607765450767</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.619437094191326</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.797400782913325</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1117254</v>
+      </c>
+      <c r="D49" t="n">
+        <v>730726</v>
+      </c>
+      <c r="E49" t="n">
+        <v>386528</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.19601246545342</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.279852844079984</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.125138362570638</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" t="n">
+        <v>4582659</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1880382</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2702277</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.80398753454658</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.720147155920016</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.874861637429362</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" t="n">
+        <v>3042434</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1847944</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1194490</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.698209996289137</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.684429280534878</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.720658051679066</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1315043</v>
+      </c>
+      <c r="D52" t="n">
+        <v>852034</v>
+      </c>
+      <c r="E52" t="n">
+        <v>463009</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.301790003710863</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.315570719465122</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.279341948320934</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" t="n">
+        <v>3889153</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1440256</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2448897</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.817036591043161</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.827927943982235</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.810763914753975</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" t="n">
+        <v>870919</v>
+      </c>
+      <c r="D54" t="n">
+        <v>299335</v>
+      </c>
+      <c r="E54" t="n">
+        <v>571584</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.182963408956839</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.172072056017765</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.189236085246025</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1461141</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1145431</v>
+      </c>
+      <c r="E55" t="n">
+        <v>315710</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.515652841375294</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.470372353662473</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.792410966399526</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1372434</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1289727</v>
+      </c>
+      <c r="E56" t="n">
+        <v>82707</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.484347158624706</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.529627646337527</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.207589033600474</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" t="s">
         <v>24</v>
       </c>
-      <c r="B19" t="n">
-        <v>37.9016300582409</v>
-      </c>
-      <c r="C19"/>
-      <c r="D19" t="n">
-        <v>19.4108839266388</v>
-      </c>
-      <c r="E19"/>
-      <c r="F19" t="n">
-        <v>43.34791315968</v>
-      </c>
-      <c r="G19"/>
+      <c r="C57" t="n">
+        <v>3969.66082065546</v>
+      </c>
+      <c r="D57" t="n">
+        <v>3964.3610176362</v>
+      </c>
+      <c r="E57" t="n">
+        <v>4014.16548383972</v>
+      </c>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" t="n">
+        <v>6482.75883754941</v>
+      </c>
+      <c r="D58" t="n">
+        <v>7628.01715829447</v>
+      </c>
+      <c r="E58" t="n">
+        <v>5403.46663529749</v>
+      </c>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" t="n">
+        <v>8036.10460057633</v>
+      </c>
+      <c r="D59" t="n">
+        <v>7981.16197750639</v>
+      </c>
+      <c r="E59" t="n">
+        <v>9783.29114799447</v>
+      </c>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" t="n">
+        <v>10891.9077021717</v>
+      </c>
+      <c r="D60" t="n">
+        <v>11314.007163639</v>
+      </c>
+      <c r="E60" t="n">
+        <v>10269.8392512484</v>
+      </c>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" t="n">
+        <v>12312.228671512</v>
+      </c>
+      <c r="D61" t="n">
+        <v>12165.1747894636</v>
+      </c>
+      <c r="E61" t="n">
+        <v>13077.5440628954</v>
+      </c>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" t="n">
+        <v>7436.45796562069</v>
+      </c>
+      <c r="D62" t="n">
+        <v>8309.72608738811</v>
+      </c>
+      <c r="E62" t="n">
+        <v>6004.40170415731</v>
+      </c>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" t="n">
+        <v>6149.86860217565</v>
+      </c>
+      <c r="D63" t="n">
+        <v>7198.58126403775</v>
+      </c>
+      <c r="E63" t="n">
+        <v>5397.68166215818</v>
+      </c>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" t="n">
+        <v>6025.29211974131</v>
+      </c>
+      <c r="D64" t="n">
+        <v>7532.50964458917</v>
+      </c>
+      <c r="E64" t="n">
+        <v>4821.14254960582</v>
+      </c>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" t="n">
+        <v>10179.2248599884</v>
+      </c>
+      <c r="D65" t="n">
+        <v>10748.6575404672</v>
+      </c>
+      <c r="E65" t="n">
+        <v>9240.18190984107</v>
+      </c>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" t="n">
+        <v>10289.7195840799</v>
+      </c>
+      <c r="D66" t="n">
+        <v>11423.4151318223</v>
+      </c>
+      <c r="E66" t="n">
+        <v>9646.51329620275</v>
+      </c>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" t="n">
+        <v>9172.87703470181</v>
+      </c>
+      <c r="D67" t="n">
+        <v>9111.39301461761</v>
+      </c>
+      <c r="E67" t="n">
+        <v>9577.83002069649</v>
+      </c>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" t="n">
+        <v>7137.16680693333</v>
+      </c>
+      <c r="D68" t="n">
+        <v>7229.50273099159</v>
+      </c>
+      <c r="E68" t="n">
+        <v>6615.57615885462</v>
+      </c>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" t="n">
+        <v>3477.26040793459</v>
+      </c>
+      <c r="D69" t="n">
+        <v>3485.43521272538</v>
+      </c>
+      <c r="E69" t="n">
+        <v>3403.33725813025</v>
+      </c>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" t="n">
+        <v>8564.31735027015</v>
+      </c>
+      <c r="D70" t="n">
+        <v>9175.26132778286</v>
+      </c>
+      <c r="E70" t="n">
+        <v>7710.32741700971</v>
+      </c>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" t="n">
+        <v>4982.70887069224</v>
+      </c>
+      <c r="D71" t="n">
+        <v>6060.65954845228</v>
+      </c>
+      <c r="E71" t="n">
+        <v>4218.92761016785</v>
+      </c>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72" t="n">
+        <v>11958.9450855985</v>
+      </c>
+      <c r="D72" t="n">
+        <v>12035.9028677038</v>
+      </c>
+      <c r="E72" t="n">
+        <v>11361.4538344777</v>
+      </c>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" t="n">
+        <v>7168.07541101899</v>
+      </c>
+      <c r="D73" t="n">
+        <v>7176.68105417807</v>
+      </c>
+      <c r="E73" t="n">
+        <v>6458.65838517075</v>
+      </c>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" t="n">
+        <v>11426.7481579529</v>
+      </c>
+      <c r="D74" t="n">
+        <v>11886.458876801</v>
+      </c>
+      <c r="E74" t="n">
+        <v>10745.0713783548</v>
+      </c>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" t="n">
+        <v>7962.96408269252</v>
+      </c>
+      <c r="D75" t="n">
+        <v>8127.96090808794</v>
+      </c>
+      <c r="E75" t="n">
+        <v>7727.82284600485</v>
+      </c>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76" t="n">
+        <v>12986.4914748801</v>
+      </c>
+      <c r="D76" t="n">
+        <v>12797.4478174059</v>
+      </c>
+      <c r="E76" t="n">
+        <v>13957.5418384379</v>
+      </c>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77" t="n">
+        <v>6915.77424727235</v>
+      </c>
+      <c r="D77" t="n">
+        <v>7199.71746348962</v>
+      </c>
+      <c r="E77" t="n">
+        <v>5267.50490808495</v>
+      </c>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" t="n">
+        <v>8727.32440440337</v>
+      </c>
+      <c r="D78" t="n">
+        <v>9259.59288803478</v>
+      </c>
+      <c r="E78" t="n">
+        <v>7697.88542538847</v>
+      </c>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" t="n">
+        <v>5005.65347583123</v>
+      </c>
+      <c r="D79" t="n">
+        <v>6164.73233569801</v>
+      </c>
+      <c r="E79" t="n">
+        <v>3590.85801899289</v>
+      </c>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>25</v>
+      </c>
+      <c r="B80" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80" t="n">
+        <v>8437.27097772623</v>
+      </c>
+      <c r="D80" t="n">
+        <v>8674.46258108356</v>
+      </c>
+      <c r="E80" t="n">
+        <v>8123.01829074927</v>
+      </c>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>25</v>
+      </c>
+      <c r="B81" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81" t="n">
+        <v>5210.09428079692</v>
+      </c>
+      <c r="D81" t="n">
+        <v>6225.59317596698</v>
+      </c>
+      <c r="E81" t="n">
+        <v>4650.82911832053</v>
+      </c>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" t="s">
+        <v>26</v>
+      </c>
+      <c r="C82" t="n">
+        <v>10170.0895212695</v>
+      </c>
+      <c r="D82" t="n">
+        <v>10448.8794856383</v>
+      </c>
+      <c r="E82" t="n">
+        <v>9651.41990247346</v>
+      </c>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" t="n">
+        <v>5081.7400912135</v>
+      </c>
+      <c r="D83" t="n">
+        <v>6445.25154733113</v>
+      </c>
+      <c r="E83" t="n">
+        <v>4183.47569976059</v>
+      </c>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84" t="s">
+        <v>26</v>
+      </c>
+      <c r="C84" t="n">
+        <v>11615.3987859506</v>
+      </c>
+      <c r="D84" t="n">
+        <v>12566.7175414288</v>
+      </c>
+      <c r="E84" t="n">
+        <v>10165.4765112576</v>
+      </c>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" t="n">
+        <v>6650.47193015867</v>
+      </c>
+      <c r="D85" t="n">
+        <v>6713.36910899484</v>
+      </c>
+      <c r="E85" t="n">
+        <v>6523.67331394981</v>
+      </c>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>18</v>
+      </c>
+      <c r="B86" t="s">
+        <v>26</v>
+      </c>
+      <c r="C86" t="n">
+        <v>11015.4717131736</v>
+      </c>
+      <c r="D86" t="n">
+        <v>11994.9274273956</v>
+      </c>
+      <c r="E86" t="n">
+        <v>10448.1210514408</v>
+      </c>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>18</v>
+      </c>
+      <c r="B87" t="s">
+        <v>27</v>
+      </c>
+      <c r="C87" t="n">
+        <v>6767.3021524655</v>
+      </c>
+      <c r="D87" t="n">
+        <v>8419.15143091561</v>
+      </c>
+      <c r="E87" t="n">
+        <v>5921.44497303624</v>
+      </c>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>19</v>
+      </c>
+      <c r="B88" t="s">
+        <v>26</v>
+      </c>
+      <c r="C88" t="n">
+        <v>11205.0423956727</v>
+      </c>
+      <c r="D88" t="n">
+        <v>11375.899591128</v>
+      </c>
+      <c r="E88" t="n">
+        <v>10534.1047221158</v>
+      </c>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>19</v>
+      </c>
+      <c r="B89" t="s">
+        <v>27</v>
+      </c>
+      <c r="C89" t="n">
+        <v>7078.8281944047</v>
+      </c>
+      <c r="D89" t="n">
+        <v>7135.98813716191</v>
+      </c>
+      <c r="E89" t="n">
+        <v>6158.86588875337</v>
+      </c>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" t="s">
+        <v>28</v>
+      </c>
+      <c r="C90" t="n">
+        <v>37.9983096307999</v>
+      </c>
+      <c r="D90" t="n">
+        <v>39.0573937572364</v>
+      </c>
+      <c r="E90" t="n">
+        <v>31.6052137561456</v>
+      </c>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91" t="s">
+        <v>28</v>
+      </c>
+      <c r="C91" t="n">
+        <v>44.4657132749101</v>
+      </c>
+      <c r="D91" t="n">
+        <v>48.3580584934047</v>
+      </c>
+      <c r="E91" t="n">
+        <v>40.9075910156561</v>
+      </c>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" t="s">
+        <v>28</v>
+      </c>
+      <c r="C92" t="n">
+        <v>44.1045920386537</v>
+      </c>
+      <c r="D92" t="n">
+        <v>44.2199974715759</v>
+      </c>
+      <c r="E92" t="n">
+        <v>40.8930703877111</v>
+      </c>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" t="s">
+        <v>28</v>
+      </c>
+      <c r="C93" t="n">
+        <v>43.9822087627889</v>
+      </c>
+      <c r="D93" t="n">
+        <v>47.0659497712246</v>
+      </c>
+      <c r="E93" t="n">
+        <v>39.4737934803618</v>
+      </c>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" t="s">
+        <v>28</v>
+      </c>
+      <c r="C94" t="n">
+        <v>46.6146204287516</v>
+      </c>
+      <c r="D94" t="n">
+        <v>47.4845766211807</v>
+      </c>
+      <c r="E94" t="n">
+        <v>42.3880557320371</v>
+      </c>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" t="s">
+        <v>28</v>
+      </c>
+      <c r="C95" t="n">
+        <v>43.6328366881674</v>
+      </c>
+      <c r="D95" t="n">
+        <v>46.1597746681121</v>
+      </c>
+      <c r="E95" t="n">
+        <v>39.5827130715668</v>
+      </c>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96" t="s">
+        <v>28</v>
+      </c>
+      <c r="C96" t="n">
+        <v>40.9418117423545</v>
+      </c>
+      <c r="D96" t="n">
+        <v>45.531596497111</v>
+      </c>
+      <c r="E96" t="n">
+        <v>37.7650298715022</v>
+      </c>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97" t="s">
+        <v>28</v>
+      </c>
+      <c r="C97" t="n">
+        <v>36.3802647514094</v>
+      </c>
+      <c r="D97" t="n">
+        <v>42.4118803205383</v>
+      </c>
+      <c r="E97" t="n">
+        <v>31.2814645145938</v>
+      </c>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>17</v>
+      </c>
+      <c r="B98" t="s">
+        <v>28</v>
+      </c>
+      <c r="C98" t="n">
+        <v>42.4175363404098</v>
+      </c>
+      <c r="D98" t="n">
+        <v>44.0839325357466</v>
+      </c>
+      <c r="E98" t="n">
+        <v>39.703065280884</v>
+      </c>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>18</v>
+      </c>
+      <c r="B99" t="s">
+        <v>28</v>
+      </c>
+      <c r="C99" t="n">
+        <v>34.1899586812973</v>
+      </c>
+      <c r="D99" t="n">
+        <v>35.2503065375712</v>
+      </c>
+      <c r="E99" t="n">
+        <v>33.5792706525881</v>
+      </c>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>19</v>
+      </c>
+      <c r="B100" t="s">
+        <v>28</v>
+      </c>
+      <c r="C100" t="n">
+        <v>51.0295397157301</v>
+      </c>
+      <c r="D100" t="n">
+        <v>52.4717583006934</v>
+      </c>
+      <c r="E100" t="n">
+        <v>42.2145791971728</v>
+      </c>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/03_productos/02_descargable_sectores.xlsx
+++ b/03_productos/02_descargable_sectores.xlsx
@@ -464,22 +464,22 @@
         <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>6806797</v>
+        <v>6733207</v>
       </c>
       <c r="D2" t="n">
-        <v>5839433</v>
+        <v>5812745</v>
       </c>
       <c r="E2" t="n">
-        <v>967364</v>
+        <v>920462</v>
       </c>
       <c r="F2" t="n">
-        <v>0.120237615125386</v>
+        <v>0.117261017316114</v>
       </c>
       <c r="G2" t="n">
-        <v>0.170299184059382</v>
+        <v>0.168344918740545</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0433368929086888</v>
+        <v>0.0402090783659457</v>
       </c>
     </row>
     <row r="3">
@@ -490,22 +490,22 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>11054847</v>
+        <v>11115094</v>
       </c>
       <c r="D3" t="n">
-        <v>5279467</v>
+        <v>5288277</v>
       </c>
       <c r="E3" t="n">
-        <v>5775380</v>
+        <v>5826817</v>
       </c>
       <c r="F3" t="n">
-        <v>0.195276638756235</v>
+        <v>0.193573022484566</v>
       </c>
       <c r="G3" t="n">
-        <v>0.153968531254393</v>
+        <v>0.153155619563992</v>
       </c>
       <c r="H3" t="n">
-        <v>0.25873096845343</v>
+        <v>0.254536245251868</v>
       </c>
     </row>
     <row r="4">
@@ -516,22 +516,22 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>4383957</v>
+        <v>4586247</v>
       </c>
       <c r="D4" t="n">
-        <v>4231885</v>
+        <v>4416917</v>
       </c>
       <c r="E4" t="n">
-        <v>152072</v>
+        <v>169330</v>
       </c>
       <c r="F4" t="n">
-        <v>0.077439731858059</v>
+        <v>0.0798710018692395</v>
       </c>
       <c r="G4" t="n">
-        <v>0.123417215769602</v>
+        <v>0.127919861175526</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00681266615091127</v>
+        <v>0.00739694114445309</v>
       </c>
     </row>
     <row r="5">
@@ -542,22 +542,22 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>2216372</v>
+        <v>2269265</v>
       </c>
       <c r="D5" t="n">
-        <v>1316138</v>
+        <v>1333906</v>
       </c>
       <c r="E5" t="n">
-        <v>900234</v>
+        <v>935359</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0391507611451732</v>
+        <v>0.0395199972999273</v>
       </c>
       <c r="G5" t="n">
-        <v>0.038383388851203</v>
+        <v>0.0386317131024199</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0403295392951987</v>
+        <v>0.0408598327049814</v>
       </c>
     </row>
     <row r="6">
@@ -568,22 +568,22 @@
         <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>396500</v>
+        <v>409120</v>
       </c>
       <c r="D6" t="n">
-        <v>328819</v>
+        <v>338456</v>
       </c>
       <c r="E6" t="n">
-        <v>67681</v>
+        <v>70664</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00700391305884624</v>
+        <v>0.0071249595333054</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0095895624460837</v>
+        <v>0.00980214129765712</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00303203783576086</v>
+        <v>0.00308685672374436</v>
       </c>
     </row>
     <row r="7">
@@ -594,22 +594,22 @@
         <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>9327585</v>
+        <v>9434324</v>
       </c>
       <c r="D7" t="n">
-        <v>5743883</v>
+        <v>5713835</v>
       </c>
       <c r="E7" t="n">
-        <v>3583702</v>
+        <v>3720489</v>
       </c>
       <c r="F7" t="n">
-        <v>0.164765685722568</v>
+        <v>0.164301859415555</v>
       </c>
       <c r="G7" t="n">
-        <v>0.167512597238902</v>
+        <v>0.165480352014734</v>
       </c>
       <c r="H7" t="n">
-        <v>0.160546092050825</v>
+        <v>0.162524290802487</v>
       </c>
     </row>
     <row r="8">
@@ -620,22 +620,22 @@
         <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>4418211</v>
+        <v>4600580</v>
       </c>
       <c r="D8" t="n">
-        <v>1807194</v>
+        <v>1881880</v>
       </c>
       <c r="E8" t="n">
-        <v>2611017</v>
+        <v>2718700</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0780448063546989</v>
+        <v>0.0801206157844499</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0527043744892716</v>
+        <v>0.0545017776763745</v>
       </c>
       <c r="H8" t="n">
-        <v>0.11697082392126</v>
+        <v>0.11876255766506</v>
       </c>
     </row>
     <row r="9">
@@ -646,22 +646,22 @@
         <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>5699913</v>
+        <v>5794820</v>
       </c>
       <c r="D9" t="n">
-        <v>2611108</v>
+        <v>2652913</v>
       </c>
       <c r="E9" t="n">
-        <v>3088805</v>
+        <v>3141907</v>
       </c>
       <c r="F9" t="n">
-        <v>0.100685233530864</v>
+        <v>0.100918698677133</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0761494415452535</v>
+        <v>0.0768319311118475</v>
       </c>
       <c r="H9" t="n">
-        <v>0.138375225355526</v>
+        <v>0.137249755863374</v>
       </c>
     </row>
     <row r="10">
@@ -672,22 +672,22 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>4357477</v>
+        <v>4341809</v>
       </c>
       <c r="D10" t="n">
-        <v>2699978</v>
+        <v>2606514</v>
       </c>
       <c r="E10" t="n">
-        <v>1657499</v>
+        <v>1735295</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0769719799846712</v>
+        <v>0.075614033599778</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0787412151793302</v>
+        <v>0.0754881536221</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0742542172948951</v>
+        <v>0.0758039035213118</v>
       </c>
     </row>
     <row r="11">
@@ -698,22 +698,22 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>4760072</v>
+        <v>4792857</v>
       </c>
       <c r="D11" t="n">
-        <v>1739591</v>
+        <v>1652133</v>
       </c>
       <c r="E11" t="n">
-        <v>3020481</v>
+        <v>3140724</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0840835572303868</v>
+        <v>0.0834691830610078</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0507328242137626</v>
+        <v>0.0478479953332846</v>
       </c>
       <c r="H11" t="n">
-        <v>0.135314381793957</v>
+        <v>0.13719807818444</v>
       </c>
     </row>
     <row r="12">
@@ -724,22 +724,22 @@
         <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>2833575</v>
+        <v>3001317</v>
       </c>
       <c r="D12" t="n">
-        <v>2435158</v>
+        <v>2583376</v>
       </c>
       <c r="E12" t="n">
-        <v>398417</v>
+        <v>417941</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0500532482868102</v>
+        <v>0.0522689239627042</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07101809721178</v>
+        <v>0.0748180460000008</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0178486638555922</v>
+        <v>0.0182571604491459</v>
       </c>
     </row>
     <row r="13">
@@ -750,22 +750,22 @@
         <v>20</v>
       </c>
       <c r="C13" t="n">
-        <v>6072038</v>
+        <v>6090577</v>
       </c>
       <c r="D13" t="n">
-        <v>5196030</v>
+        <v>5230160</v>
       </c>
       <c r="E13" t="n">
-        <v>876008</v>
+        <v>860417</v>
       </c>
       <c r="F13" t="n">
-        <v>0.892055103156448</v>
+        <v>0.904558110273455</v>
       </c>
       <c r="G13" t="n">
-        <v>0.889817555916816</v>
+        <v>0.899774547137368</v>
       </c>
       <c r="H13" t="n">
-        <v>0.905561918781348</v>
+        <v>0.934766454237111</v>
       </c>
     </row>
     <row r="14">
@@ -776,22 +776,22 @@
         <v>21</v>
       </c>
       <c r="C14" t="n">
-        <v>734759</v>
+        <v>642630</v>
       </c>
       <c r="D14" t="n">
-        <v>643403</v>
+        <v>582585</v>
       </c>
       <c r="E14" t="n">
-        <v>91356</v>
+        <v>60045</v>
       </c>
       <c r="F14" t="n">
-        <v>0.107944896843552</v>
+        <v>0.0954418897265449</v>
       </c>
       <c r="G14" t="n">
-        <v>0.110182444083184</v>
+        <v>0.100225452862632</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0944380812186519</v>
+        <v>0.0652335457628886</v>
       </c>
     </row>
     <row r="15">
@@ -802,22 +802,22 @@
         <v>20</v>
       </c>
       <c r="C15" t="n">
-        <v>9704855</v>
+        <v>9946602</v>
       </c>
       <c r="D15" t="n">
-        <v>4699984</v>
+        <v>4790158</v>
       </c>
       <c r="E15" t="n">
-        <v>5004871</v>
+        <v>5156444</v>
       </c>
       <c r="F15" t="n">
-        <v>0.877882344278487</v>
+        <v>0.894873403679717</v>
       </c>
       <c r="G15" t="n">
-        <v>0.890238351712398</v>
+        <v>0.905806938630484</v>
       </c>
       <c r="H15" t="n">
-        <v>0.866587306809249</v>
+        <v>0.884950394014434</v>
       </c>
     </row>
     <row r="16">
@@ -828,22 +828,22 @@
         <v>21</v>
       </c>
       <c r="C16" t="n">
-        <v>1349992</v>
+        <v>1168492</v>
       </c>
       <c r="D16" t="n">
-        <v>579483</v>
+        <v>498119</v>
       </c>
       <c r="E16" t="n">
-        <v>770509</v>
+        <v>670373</v>
       </c>
       <c r="F16" t="n">
-        <v>0.122117655721513</v>
+        <v>0.105126596320283</v>
       </c>
       <c r="G16" t="n">
-        <v>0.109761648287602</v>
+        <v>0.094193061369516</v>
       </c>
       <c r="H16" t="n">
-        <v>0.133412693190751</v>
+        <v>0.115049605985566</v>
       </c>
     </row>
     <row r="17">
@@ -854,22 +854,22 @@
         <v>20</v>
       </c>
       <c r="C17" t="n">
-        <v>3821680</v>
+        <v>4011335</v>
       </c>
       <c r="D17" t="n">
-        <v>3678583</v>
+        <v>3857094</v>
       </c>
       <c r="E17" t="n">
-        <v>143097</v>
+        <v>154241</v>
       </c>
       <c r="F17" t="n">
-        <v>0.871742127032724</v>
+        <v>0.874644344275396</v>
       </c>
       <c r="G17" t="n">
-        <v>0.869254008556471</v>
+        <v>0.873254806463422</v>
       </c>
       <c r="H17" t="n">
-        <v>0.940981903308959</v>
+        <v>0.910889978149176</v>
       </c>
     </row>
     <row r="18">
@@ -880,22 +880,22 @@
         <v>21</v>
       </c>
       <c r="C18" t="n">
-        <v>562277</v>
+        <v>574912</v>
       </c>
       <c r="D18" t="n">
-        <v>553302</v>
+        <v>559823</v>
       </c>
       <c r="E18" t="n">
-        <v>8975</v>
+        <v>15089</v>
       </c>
       <c r="F18" t="n">
-        <v>0.128257872967276</v>
+        <v>0.125355655724604</v>
       </c>
       <c r="G18" t="n">
-        <v>0.130745991443529</v>
+        <v>0.126745193536578</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0590180966910411</v>
+        <v>0.0891100218508238</v>
       </c>
     </row>
     <row r="19">
@@ -906,22 +906,22 @@
         <v>20</v>
       </c>
       <c r="C19" t="n">
-        <v>2129574</v>
+        <v>2218624</v>
       </c>
       <c r="D19" t="n">
-        <v>1281863</v>
+        <v>1308894</v>
       </c>
       <c r="E19" t="n">
-        <v>847711</v>
+        <v>909730</v>
       </c>
       <c r="F19" t="n">
-        <v>0.960837801596483</v>
+        <v>0.977683963750377</v>
       </c>
       <c r="G19" t="n">
-        <v>0.973957898031969</v>
+        <v>0.981249053531508</v>
       </c>
       <c r="H19" t="n">
-        <v>0.941656280478187</v>
+        <v>0.972599825307716</v>
       </c>
     </row>
     <row r="20">
@@ -932,22 +932,22 @@
         <v>21</v>
       </c>
       <c r="C20" t="n">
-        <v>86798</v>
+        <v>50641</v>
       </c>
       <c r="D20" t="n">
-        <v>34275</v>
+        <v>25012</v>
       </c>
       <c r="E20" t="n">
-        <v>52523</v>
+        <v>25629</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0391621984035171</v>
+        <v>0.0223160362496227</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0260421019680307</v>
+        <v>0.0187509464684918</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0583437195218132</v>
+        <v>0.0274001746922839</v>
       </c>
     </row>
     <row r="21">
@@ -958,22 +958,22 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>387282</v>
+        <v>400286</v>
       </c>
       <c r="D21" t="n">
-        <v>321352</v>
+        <v>330463</v>
       </c>
       <c r="E21" t="n">
-        <v>65930</v>
+        <v>69823</v>
       </c>
       <c r="F21" t="n">
-        <v>0.97675157629256</v>
+        <v>0.978407313257724</v>
       </c>
       <c r="G21" t="n">
-        <v>0.977291458218655</v>
+        <v>0.976383931737065</v>
       </c>
       <c r="H21" t="n">
-        <v>0.974128632851169</v>
+        <v>0.988098607494622</v>
       </c>
     </row>
     <row r="22">
@@ -984,22 +984,22 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>9218</v>
+        <v>8834</v>
       </c>
       <c r="D22" t="n">
-        <v>7467</v>
+        <v>7993</v>
       </c>
       <c r="E22" t="n">
-        <v>1751</v>
+        <v>841</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0232484237074401</v>
+        <v>0.0215926867422761</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0227085417813448</v>
+        <v>0.0236160682629352</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0258713671488305</v>
+        <v>0.0119013925053776</v>
       </c>
     </row>
     <row r="23">
@@ -1010,22 +1010,22 @@
         <v>20</v>
       </c>
       <c r="C23" t="n">
-        <v>8536105</v>
+        <v>8809506</v>
       </c>
       <c r="D23" t="n">
-        <v>5276878</v>
+        <v>5350356</v>
       </c>
       <c r="E23" t="n">
-        <v>3259227</v>
+        <v>3459150</v>
       </c>
       <c r="F23" t="n">
-        <v>0.915146310647397</v>
+        <v>0.933771831452895</v>
       </c>
       <c r="G23" t="n">
-        <v>0.918695245011084</v>
+        <v>0.93638615745817</v>
       </c>
       <c r="H23" t="n">
-        <v>0.909458152491474</v>
+        <v>0.929756814225227</v>
       </c>
     </row>
     <row r="24">
@@ -1036,22 +1036,22 @@
         <v>21</v>
       </c>
       <c r="C24" t="n">
-        <v>791480</v>
+        <v>624818</v>
       </c>
       <c r="D24" t="n">
-        <v>467005</v>
+        <v>363479</v>
       </c>
       <c r="E24" t="n">
-        <v>324475</v>
+        <v>261339</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0848536893526031</v>
+        <v>0.0662281685471052</v>
       </c>
       <c r="G24" t="n">
-        <v>0.081304754988916</v>
+        <v>0.0636138425418305</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0905418475085261</v>
+        <v>0.0702431857747731</v>
       </c>
     </row>
     <row r="25">
@@ -1062,22 +1062,22 @@
         <v>20</v>
       </c>
       <c r="C25" t="n">
-        <v>3884721</v>
+        <v>4143669</v>
       </c>
       <c r="D25" t="n">
-        <v>1596655</v>
+        <v>1727305</v>
       </c>
       <c r="E25" t="n">
-        <v>2288066</v>
+        <v>2416364</v>
       </c>
       <c r="F25" t="n">
-        <v>0.879252032100776</v>
+        <v>0.900684044185733</v>
       </c>
       <c r="G25" t="n">
-        <v>0.883499502543722</v>
+        <v>0.917861393925224</v>
       </c>
       <c r="H25" t="n">
-        <v>0.876312180273051</v>
+        <v>0.888793908853496</v>
       </c>
     </row>
     <row r="26">
@@ -1088,22 +1088,22 @@
         <v>21</v>
       </c>
       <c r="C26" t="n">
-        <v>533490</v>
+        <v>456911</v>
       </c>
       <c r="D26" t="n">
-        <v>210539</v>
+        <v>154575</v>
       </c>
       <c r="E26" t="n">
-        <v>322951</v>
+        <v>302336</v>
       </c>
       <c r="F26" t="n">
-        <v>0.120747967899224</v>
+        <v>0.0993159558142669</v>
       </c>
       <c r="G26" t="n">
-        <v>0.116500497456278</v>
+        <v>0.0821386060747763</v>
       </c>
       <c r="H26" t="n">
-        <v>0.123687819726949</v>
+        <v>0.111206091146504</v>
       </c>
     </row>
     <row r="27">
@@ -1114,22 +1114,22 @@
         <v>20</v>
       </c>
       <c r="C27" t="n">
-        <v>4832860</v>
+        <v>5075694</v>
       </c>
       <c r="D27" t="n">
-        <v>2149223</v>
+        <v>2287913</v>
       </c>
       <c r="E27" t="n">
-        <v>2683637</v>
+        <v>2787781</v>
       </c>
       <c r="F27" t="n">
-        <v>0.847883116812485</v>
+        <v>0.875901926203057</v>
       </c>
       <c r="G27" t="n">
-        <v>0.823107661575086</v>
+        <v>0.86241539017676</v>
       </c>
       <c r="H27" t="n">
-        <v>0.86882694116333</v>
+        <v>0.88728947101235</v>
       </c>
     </row>
     <row r="28">
@@ -1140,22 +1140,22 @@
         <v>21</v>
       </c>
       <c r="C28" t="n">
-        <v>867053</v>
+        <v>719126</v>
       </c>
       <c r="D28" t="n">
-        <v>461885</v>
+        <v>365000</v>
       </c>
       <c r="E28" t="n">
-        <v>405168</v>
+        <v>354126</v>
       </c>
       <c r="F28" t="n">
-        <v>0.152116883187515</v>
+        <v>0.124098073796943</v>
       </c>
       <c r="G28" t="n">
-        <v>0.176892338424914</v>
+        <v>0.13758460982324</v>
       </c>
       <c r="H28" t="n">
-        <v>0.13117305883667</v>
+        <v>0.11271052898765</v>
       </c>
     </row>
     <row r="29">
@@ -1166,22 +1166,22 @@
         <v>20</v>
       </c>
       <c r="C29" t="n">
-        <v>3955622</v>
+        <v>3984253</v>
       </c>
       <c r="D29" t="n">
-        <v>2422071</v>
+        <v>2374995</v>
       </c>
       <c r="E29" t="n">
-        <v>1533551</v>
+        <v>1609258</v>
       </c>
       <c r="F29" t="n">
-        <v>0.90777805597138</v>
+        <v>0.917648150805344</v>
       </c>
       <c r="G29" t="n">
-        <v>0.89707064279783</v>
+        <v>0.911176767130351</v>
       </c>
       <c r="H29" t="n">
-        <v>0.925219864386042</v>
+        <v>0.927368545405824</v>
       </c>
     </row>
     <row r="30">
@@ -1192,22 +1192,22 @@
         <v>21</v>
       </c>
       <c r="C30" t="n">
-        <v>401855</v>
+        <v>357556</v>
       </c>
       <c r="D30" t="n">
-        <v>277907</v>
+        <v>231519</v>
       </c>
       <c r="E30" t="n">
-        <v>123948</v>
+        <v>126037</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0922219440286202</v>
+        <v>0.082351849194656</v>
       </c>
       <c r="G30" t="n">
-        <v>0.10292935720217</v>
+        <v>0.0888232328696489</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0747801356139581</v>
+        <v>0.0726314545941756</v>
       </c>
     </row>
     <row r="31">
@@ -1218,22 +1218,22 @@
         <v>20</v>
       </c>
       <c r="C31" t="n">
-        <v>4420995</v>
+        <v>4591177</v>
       </c>
       <c r="D31" t="n">
-        <v>1595137</v>
+        <v>1564386</v>
       </c>
       <c r="E31" t="n">
-        <v>2825858</v>
+        <v>3026791</v>
       </c>
       <c r="F31" t="n">
-        <v>0.928766413617273</v>
+        <v>0.957920714095997</v>
       </c>
       <c r="G31" t="n">
-        <v>0.916960940818848</v>
+        <v>0.946888658479674</v>
       </c>
       <c r="H31" t="n">
-        <v>0.935565560584556</v>
+        <v>0.963723969377761</v>
       </c>
     </row>
     <row r="32">
@@ -1244,22 +1244,22 @@
         <v>21</v>
       </c>
       <c r="C32" t="n">
-        <v>339077</v>
+        <v>201680</v>
       </c>
       <c r="D32" t="n">
-        <v>144454</v>
+        <v>87747</v>
       </c>
       <c r="E32" t="n">
-        <v>194623</v>
+        <v>113933</v>
       </c>
       <c r="F32" t="n">
-        <v>0.071233586382727</v>
+        <v>0.0420792859040026</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0830390591811524</v>
+        <v>0.0531113415203255</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0644344394154441</v>
+        <v>0.0362760306222387</v>
       </c>
     </row>
     <row r="33">
@@ -1270,22 +1270,22 @@
         <v>20</v>
       </c>
       <c r="C33" t="n">
-        <v>2532323</v>
+        <v>2741485</v>
       </c>
       <c r="D33" t="n">
-        <v>2158610</v>
+        <v>2343379</v>
       </c>
       <c r="E33" t="n">
-        <v>373713</v>
+        <v>398106</v>
       </c>
       <c r="F33" t="n">
-        <v>0.893684832764264</v>
+        <v>0.91342733873163</v>
       </c>
       <c r="G33" t="n">
-        <v>0.886435294958274</v>
+        <v>0.907099469841014</v>
       </c>
       <c r="H33" t="n">
-        <v>0.937994613683653</v>
+        <v>0.95254114815249</v>
       </c>
     </row>
     <row r="34">
@@ -1296,22 +1296,22 @@
         <v>21</v>
       </c>
       <c r="C34" t="n">
-        <v>301252</v>
+        <v>259832</v>
       </c>
       <c r="D34" t="n">
-        <v>276548</v>
+        <v>239997</v>
       </c>
       <c r="E34" t="n">
-        <v>24704</v>
+        <v>19835</v>
       </c>
       <c r="F34" t="n">
-        <v>0.106315167235736</v>
+        <v>0.0865726612683698</v>
       </c>
       <c r="G34" t="n">
-        <v>0.113564705041726</v>
+        <v>0.0929005301589858</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0620053863163469</v>
+        <v>0.0474588518475096</v>
       </c>
     </row>
     <row r="35">
@@ -1322,22 +1322,22 @@
         <v>22</v>
       </c>
       <c r="C35" t="n">
-        <v>863171</v>
+        <v>931584</v>
       </c>
       <c r="D35" t="n">
-        <v>737744</v>
+        <v>793911</v>
       </c>
       <c r="E35" t="n">
-        <v>125427</v>
+        <v>137673</v>
       </c>
       <c r="F35" t="n">
-        <v>0.126810157552811</v>
+        <v>0.138356655305562</v>
       </c>
       <c r="G35" t="n">
-        <v>0.126338293461026</v>
+        <v>0.136581081743651</v>
       </c>
       <c r="H35" t="n">
-        <v>0.129658535980251</v>
+        <v>0.149569455338732</v>
       </c>
     </row>
     <row r="36">
@@ -1348,22 +1348,22 @@
         <v>23</v>
       </c>
       <c r="C36" t="n">
-        <v>5943626</v>
+        <v>5801623</v>
       </c>
       <c r="D36" t="n">
-        <v>5101689</v>
+        <v>5018834</v>
       </c>
       <c r="E36" t="n">
-        <v>841937</v>
+        <v>782789</v>
       </c>
       <c r="F36" t="n">
-        <v>0.873189842447189</v>
+        <v>0.861643344694438</v>
       </c>
       <c r="G36" t="n">
-        <v>0.873661706538974</v>
+        <v>0.863418918256349</v>
       </c>
       <c r="H36" t="n">
-        <v>0.870341464019749</v>
+        <v>0.850430544661268</v>
       </c>
     </row>
     <row r="37">
@@ -1374,22 +1374,22 @@
         <v>22</v>
       </c>
       <c r="C37" t="n">
-        <v>4399151</v>
+        <v>4474425</v>
       </c>
       <c r="D37" t="n">
-        <v>2567740</v>
+        <v>2628407</v>
       </c>
       <c r="E37" t="n">
-        <v>1831411</v>
+        <v>1846018</v>
       </c>
       <c r="F37" t="n">
-        <v>0.397938659847576</v>
+        <v>0.4025539505109</v>
       </c>
       <c r="G37" t="n">
-        <v>0.486363490859967</v>
+        <v>0.497025212559781</v>
       </c>
       <c r="H37" t="n">
-        <v>0.317106579999931</v>
+        <v>0.316814137118087</v>
       </c>
     </row>
     <row r="38">
@@ -1400,22 +1400,22 @@
         <v>23</v>
       </c>
       <c r="C38" t="n">
-        <v>6655696</v>
+        <v>6640669</v>
       </c>
       <c r="D38" t="n">
-        <v>2711727</v>
+        <v>2659870</v>
       </c>
       <c r="E38" t="n">
-        <v>3943969</v>
+        <v>3980799</v>
       </c>
       <c r="F38" t="n">
-        <v>0.602061340152424</v>
+        <v>0.5974460494891</v>
       </c>
       <c r="G38" t="n">
-        <v>0.513636509140033</v>
+        <v>0.502974787440219</v>
       </c>
       <c r="H38" t="n">
-        <v>0.682893420000069</v>
+        <v>0.683185862881913</v>
       </c>
     </row>
     <row r="39">
@@ -1426,22 +1426,22 @@
         <v>22</v>
       </c>
       <c r="C39" t="n">
-        <v>854313</v>
+        <v>917559</v>
       </c>
       <c r="D39" t="n">
-        <v>748178</v>
+        <v>799211</v>
       </c>
       <c r="E39" t="n">
-        <v>106135</v>
+        <v>118348</v>
       </c>
       <c r="F39" t="n">
-        <v>0.194872577445445</v>
+        <v>0.200067506176619</v>
       </c>
       <c r="G39" t="n">
-        <v>0.176795446946219</v>
+        <v>0.180943178239482</v>
       </c>
       <c r="H39" t="n">
-        <v>0.697925982429376</v>
+        <v>0.698919270064371</v>
       </c>
     </row>
     <row r="40">
@@ -1452,22 +1452,22 @@
         <v>23</v>
       </c>
       <c r="C40" t="n">
-        <v>3529644</v>
+        <v>3668688</v>
       </c>
       <c r="D40" t="n">
-        <v>3483707</v>
+        <v>3617706</v>
       </c>
       <c r="E40" t="n">
-        <v>45937</v>
+        <v>50982</v>
       </c>
       <c r="F40" t="n">
-        <v>0.805127422554555</v>
+        <v>0.799932493823381</v>
       </c>
       <c r="G40" t="n">
-        <v>0.823204553053781</v>
+        <v>0.819056821760518</v>
       </c>
       <c r="H40" t="n">
-        <v>0.302074017570624</v>
+        <v>0.301080729935629</v>
       </c>
     </row>
     <row r="41">
@@ -1478,22 +1478,22 @@
         <v>22</v>
       </c>
       <c r="C41" t="n">
-        <v>1842275</v>
+        <v>1865655</v>
       </c>
       <c r="D41" t="n">
-        <v>1092931</v>
+        <v>1105788</v>
       </c>
       <c r="E41" t="n">
-        <v>749344</v>
+        <v>759867</v>
       </c>
       <c r="F41" t="n">
-        <v>0.831211998707798</v>
+        <v>0.822140649064785</v>
       </c>
       <c r="G41" t="n">
-        <v>0.830407601634479</v>
+        <v>0.828984950963561</v>
       </c>
       <c r="H41" t="n">
-        <v>0.832388023558319</v>
+        <v>0.812380059421035</v>
       </c>
     </row>
     <row r="42">
@@ -1504,22 +1504,22 @@
         <v>23</v>
       </c>
       <c r="C42" t="n">
-        <v>374097</v>
+        <v>403610</v>
       </c>
       <c r="D42" t="n">
-        <v>223207</v>
+        <v>228118</v>
       </c>
       <c r="E42" t="n">
-        <v>150890</v>
+        <v>175492</v>
       </c>
       <c r="F42" t="n">
-        <v>0.168788001292202</v>
+        <v>0.177859350935215</v>
       </c>
       <c r="G42" t="n">
-        <v>0.169592398365521</v>
+        <v>0.171015049036439</v>
       </c>
       <c r="H42" t="n">
-        <v>0.167611976441681</v>
+        <v>0.187619940578965</v>
       </c>
     </row>
     <row r="43">
@@ -1530,22 +1530,22 @@
         <v>22</v>
       </c>
       <c r="C43" t="n">
-        <v>353992</v>
+        <v>354723</v>
       </c>
       <c r="D43" t="n">
-        <v>292305</v>
+        <v>287455</v>
       </c>
       <c r="E43" t="n">
-        <v>61687</v>
+        <v>67268</v>
       </c>
       <c r="F43" t="n">
-        <v>0.892791929382093</v>
+        <v>0.867039010559249</v>
       </c>
       <c r="G43" t="n">
-        <v>0.888954105450111</v>
+        <v>0.849312761481552</v>
       </c>
       <c r="H43" t="n">
-        <v>0.911437478760657</v>
+        <v>0.951941582701234</v>
       </c>
     </row>
     <row r="44">
@@ -1556,22 +1556,22 @@
         <v>23</v>
       </c>
       <c r="C44" t="n">
-        <v>42508</v>
+        <v>54397</v>
       </c>
       <c r="D44" t="n">
-        <v>36514</v>
+        <v>51001</v>
       </c>
       <c r="E44" t="n">
-        <v>5994</v>
+        <v>3396</v>
       </c>
       <c r="F44" t="n">
-        <v>0.107208070617907</v>
+        <v>0.132960989440751</v>
       </c>
       <c r="G44" t="n">
-        <v>0.111045894549889</v>
+        <v>0.150687238518448</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0885625212393434</v>
+        <v>0.048058417298766</v>
       </c>
     </row>
     <row r="45">
@@ -1582,22 +1582,22 @@
         <v>22</v>
       </c>
       <c r="C45" t="n">
-        <v>5913935</v>
+        <v>5950820</v>
       </c>
       <c r="D45" t="n">
-        <v>3898554</v>
+        <v>3833592</v>
       </c>
       <c r="E45" t="n">
-        <v>2015381</v>
+        <v>2117228</v>
       </c>
       <c r="F45" t="n">
-        <v>0.634026385179015</v>
+        <v>0.630762734033726</v>
       </c>
       <c r="G45" t="n">
-        <v>0.678731443520002</v>
+        <v>0.670931519723618</v>
       </c>
       <c r="H45" t="n">
-        <v>0.562374047842148</v>
+        <v>0.569072506329141</v>
       </c>
     </row>
     <row r="46">
@@ -1608,22 +1608,22 @@
         <v>23</v>
       </c>
       <c r="C46" t="n">
-        <v>3413650</v>
+        <v>3483504</v>
       </c>
       <c r="D46" t="n">
-        <v>1845329</v>
+        <v>1880243</v>
       </c>
       <c r="E46" t="n">
-        <v>1568321</v>
+        <v>1603261</v>
       </c>
       <c r="F46" t="n">
-        <v>0.365973614820985</v>
+        <v>0.369237265966274</v>
       </c>
       <c r="G46" t="n">
-        <v>0.321268556479998</v>
+        <v>0.329068480276382</v>
       </c>
       <c r="H46" t="n">
-        <v>0.437625952157852</v>
+        <v>0.430927493670859</v>
       </c>
     </row>
     <row r="47">
@@ -1634,22 +1634,22 @@
         <v>22</v>
       </c>
       <c r="C47" t="n">
-        <v>1216741</v>
+        <v>1302810</v>
       </c>
       <c r="D47" t="n">
-        <v>687751</v>
+        <v>735198</v>
       </c>
       <c r="E47" t="n">
-        <v>528990</v>
+        <v>567612</v>
       </c>
       <c r="F47" t="n">
-        <v>0.275392234549233</v>
+        <v>0.28318385942642</v>
       </c>
       <c r="G47" t="n">
-        <v>0.380562905808674</v>
+        <v>0.390672093863583</v>
       </c>
       <c r="H47" t="n">
-        <v>0.202599217086675</v>
+        <v>0.208780667230662</v>
       </c>
     </row>
     <row r="48">
@@ -1660,22 +1660,22 @@
         <v>23</v>
       </c>
       <c r="C48" t="n">
-        <v>3201470</v>
+        <v>3297770</v>
       </c>
       <c r="D48" t="n">
-        <v>1119443</v>
+        <v>1146682</v>
       </c>
       <c r="E48" t="n">
-        <v>2082027</v>
+        <v>2151088</v>
       </c>
       <c r="F48" t="n">
-        <v>0.724607765450767</v>
+        <v>0.71681614057358</v>
       </c>
       <c r="G48" t="n">
-        <v>0.619437094191326</v>
+        <v>0.609327906136417</v>
       </c>
       <c r="H48" t="n">
-        <v>0.797400782913325</v>
+        <v>0.791219332769338</v>
       </c>
     </row>
     <row r="49">
@@ -1686,22 +1686,22 @@
         <v>22</v>
       </c>
       <c r="C49" t="n">
-        <v>1117254</v>
+        <v>1072993</v>
       </c>
       <c r="D49" t="n">
-        <v>730726</v>
+        <v>724028</v>
       </c>
       <c r="E49" t="n">
-        <v>386528</v>
+        <v>348965</v>
       </c>
       <c r="F49" t="n">
-        <v>0.19601246545342</v>
+        <v>0.185164163856686</v>
       </c>
       <c r="G49" t="n">
-        <v>0.279852844079984</v>
+        <v>0.272918109263289</v>
       </c>
       <c r="H49" t="n">
-        <v>0.125138362570638</v>
+        <v>0.111067896026203</v>
       </c>
     </row>
     <row r="50">
@@ -1712,22 +1712,22 @@
         <v>23</v>
       </c>
       <c r="C50" t="n">
-        <v>4582659</v>
+        <v>4721827</v>
       </c>
       <c r="D50" t="n">
-        <v>1880382</v>
+        <v>1928885</v>
       </c>
       <c r="E50" t="n">
-        <v>2702277</v>
+        <v>2792942</v>
       </c>
       <c r="F50" t="n">
-        <v>0.80398753454658</v>
+        <v>0.814835836143314</v>
       </c>
       <c r="G50" t="n">
-        <v>0.720147155920016</v>
+        <v>0.727081890736711</v>
       </c>
       <c r="H50" t="n">
-        <v>0.874861637429362</v>
+        <v>0.888932103973797</v>
       </c>
     </row>
     <row r="51">
@@ -1738,22 +1738,22 @@
         <v>22</v>
       </c>
       <c r="C51" t="n">
-        <v>3042434</v>
+        <v>3022955</v>
       </c>
       <c r="D51" t="n">
-        <v>1847944</v>
+        <v>1783797</v>
       </c>
       <c r="E51" t="n">
-        <v>1194490</v>
+        <v>1239158</v>
       </c>
       <c r="F51" t="n">
-        <v>0.698209996289137</v>
+        <v>0.696243201854342</v>
       </c>
       <c r="G51" t="n">
-        <v>0.684429280534878</v>
+        <v>0.684361181255884</v>
       </c>
       <c r="H51" t="n">
-        <v>0.720658051679066</v>
+        <v>0.714090687750498</v>
       </c>
     </row>
     <row r="52">
@@ -1764,22 +1764,22 @@
         <v>23</v>
       </c>
       <c r="C52" t="n">
-        <v>1315043</v>
+        <v>1318854</v>
       </c>
       <c r="D52" t="n">
-        <v>852034</v>
+        <v>822717</v>
       </c>
       <c r="E52" t="n">
-        <v>463009</v>
+        <v>496137</v>
       </c>
       <c r="F52" t="n">
-        <v>0.301790003710863</v>
+        <v>0.303756798145658</v>
       </c>
       <c r="G52" t="n">
-        <v>0.315570719465122</v>
+        <v>0.315638818744116</v>
       </c>
       <c r="H52" t="n">
-        <v>0.279341948320934</v>
+        <v>0.285909312249502</v>
       </c>
     </row>
     <row r="53">
@@ -1790,22 +1790,22 @@
         <v>22</v>
       </c>
       <c r="C53" t="n">
-        <v>3889153</v>
+        <v>3934554</v>
       </c>
       <c r="D53" t="n">
-        <v>1440256</v>
+        <v>1391639</v>
       </c>
       <c r="E53" t="n">
-        <v>2448897</v>
+        <v>2542915</v>
       </c>
       <c r="F53" t="n">
-        <v>0.817036591043161</v>
+        <v>0.820920382143678</v>
       </c>
       <c r="G53" t="n">
-        <v>0.827927943982235</v>
+        <v>0.84232867450744</v>
       </c>
       <c r="H53" t="n">
-        <v>0.810763914753975</v>
+        <v>0.809658855728806</v>
       </c>
     </row>
     <row r="54">
@@ -1816,22 +1816,22 @@
         <v>23</v>
       </c>
       <c r="C54" t="n">
-        <v>870919</v>
+        <v>858303</v>
       </c>
       <c r="D54" t="n">
-        <v>299335</v>
+        <v>260494</v>
       </c>
       <c r="E54" t="n">
-        <v>571584</v>
+        <v>597809</v>
       </c>
       <c r="F54" t="n">
-        <v>0.182963408956839</v>
+        <v>0.179079617856322</v>
       </c>
       <c r="G54" t="n">
-        <v>0.172072056017765</v>
+        <v>0.15767132549256</v>
       </c>
       <c r="H54" t="n">
-        <v>0.189236085246025</v>
+        <v>0.190341144271194</v>
       </c>
     </row>
     <row r="55">
@@ -1842,22 +1842,22 @@
         <v>22</v>
       </c>
       <c r="C55" t="n">
-        <v>1461141</v>
+        <v>1535774</v>
       </c>
       <c r="D55" t="n">
-        <v>1145431</v>
+        <v>1202992</v>
       </c>
       <c r="E55" t="n">
-        <v>315710</v>
+        <v>332782</v>
       </c>
       <c r="F55" t="n">
-        <v>0.515652841375294</v>
+        <v>0.511700030353342</v>
       </c>
       <c r="G55" t="n">
-        <v>0.470372353662473</v>
+        <v>0.465666631570472</v>
       </c>
       <c r="H55" t="n">
-        <v>0.792410966399526</v>
+        <v>0.79624157476773</v>
       </c>
     </row>
     <row r="56">
@@ -1868,22 +1868,22 @@
         <v>23</v>
       </c>
       <c r="C56" t="n">
-        <v>1372434</v>
+        <v>1465543</v>
       </c>
       <c r="D56" t="n">
-        <v>1289727</v>
+        <v>1380384</v>
       </c>
       <c r="E56" t="n">
-        <v>82707</v>
+        <v>85159</v>
       </c>
       <c r="F56" t="n">
-        <v>0.484347158624706</v>
+        <v>0.488299969646658</v>
       </c>
       <c r="G56" t="n">
-        <v>0.529627646337527</v>
+        <v>0.534333368429528</v>
       </c>
       <c r="H56" t="n">
-        <v>0.207589033600474</v>
+        <v>0.20375842523227</v>
       </c>
     </row>
     <row r="57">
@@ -1894,13 +1894,13 @@
         <v>24</v>
       </c>
       <c r="C57" t="n">
-        <v>3969.66082065546</v>
+        <v>4284.86759133287</v>
       </c>
       <c r="D57" t="n">
-        <v>3964.3610176362</v>
+        <v>4307.99799627993</v>
       </c>
       <c r="E57" t="n">
-        <v>4014.16548383972</v>
+        <v>4098.07286278798</v>
       </c>
       <c r="F57"/>
       <c r="G57"/>
@@ -1914,13 +1914,13 @@
         <v>24</v>
       </c>
       <c r="C58" t="n">
-        <v>6482.75883754941</v>
+        <v>6966.90107793036</v>
       </c>
       <c r="D58" t="n">
-        <v>7628.01715829447</v>
+        <v>8356.81171473929</v>
       </c>
       <c r="E58" t="n">
-        <v>5403.46663529749</v>
+        <v>5660.18564208582</v>
       </c>
       <c r="F58"/>
       <c r="G58"/>
@@ -1934,13 +1934,13 @@
         <v>24</v>
       </c>
       <c r="C59" t="n">
-        <v>8036.10460057633</v>
+        <v>8589.7655652548</v>
       </c>
       <c r="D59" t="n">
-        <v>7981.16197750639</v>
+        <v>8514.77380797495</v>
       </c>
       <c r="E59" t="n">
-        <v>9783.29114799447</v>
+        <v>10831.3684561736</v>
       </c>
       <c r="F59"/>
       <c r="G59"/>
@@ -1954,13 +1954,13 @@
         <v>24</v>
       </c>
       <c r="C60" t="n">
-        <v>10891.9077021717</v>
+        <v>11346.1129697871</v>
       </c>
       <c r="D60" t="n">
-        <v>11314.007163639</v>
+        <v>11577.803917946</v>
       </c>
       <c r="E60" t="n">
-        <v>10269.8392512484</v>
+        <v>11007.6349969216</v>
       </c>
       <c r="F60"/>
       <c r="G60"/>
@@ -1974,13 +1974,13 @@
         <v>24</v>
       </c>
       <c r="C61" t="n">
-        <v>12312.228671512</v>
+        <v>13187.158244008</v>
       </c>
       <c r="D61" t="n">
-        <v>12165.1747894636</v>
+        <v>12894.3538340057</v>
       </c>
       <c r="E61" t="n">
-        <v>13077.5440628954</v>
+        <v>14551.1826095641</v>
       </c>
       <c r="F61"/>
       <c r="G61"/>
@@ -1994,13 +1994,13 @@
         <v>24</v>
       </c>
       <c r="C62" t="n">
-        <v>7436.45796562069</v>
+        <v>8234.68829323483</v>
       </c>
       <c r="D62" t="n">
-        <v>8309.72608738811</v>
+        <v>9344.06536024608</v>
       </c>
       <c r="E62" t="n">
-        <v>6004.40170415731</v>
+        <v>6482.82889250846</v>
       </c>
       <c r="F62"/>
       <c r="G62"/>
@@ -2014,13 +2014,13 @@
         <v>24</v>
       </c>
       <c r="C63" t="n">
-        <v>6149.86860217565</v>
+        <v>6764.50696254809</v>
       </c>
       <c r="D63" t="n">
-        <v>7198.58126403775</v>
+        <v>8119.66455503173</v>
       </c>
       <c r="E63" t="n">
-        <v>5397.68166215818</v>
+        <v>5791.93938538867</v>
       </c>
       <c r="F63"/>
       <c r="G63"/>
@@ -2034,13 +2034,13 @@
         <v>24</v>
       </c>
       <c r="C64" t="n">
-        <v>6025.29211974131</v>
+        <v>6281.74225815858</v>
       </c>
       <c r="D64" t="n">
-        <v>7532.50964458917</v>
+        <v>7960.74619941803</v>
       </c>
       <c r="E64" t="n">
-        <v>4821.14254960582</v>
+        <v>4914.83936862729</v>
       </c>
       <c r="F64"/>
       <c r="G64"/>
@@ -2054,13 +2054,13 @@
         <v>24</v>
       </c>
       <c r="C65" t="n">
-        <v>10179.2248599884</v>
+        <v>10638.7137005881</v>
       </c>
       <c r="D65" t="n">
-        <v>10748.6575404672</v>
+        <v>10979.9523364213</v>
       </c>
       <c r="E65" t="n">
-        <v>9240.18190984107</v>
+        <v>10124.2475438805</v>
       </c>
       <c r="F65"/>
       <c r="G65"/>
@@ -2074,13 +2074,13 @@
         <v>24</v>
       </c>
       <c r="C66" t="n">
-        <v>10289.7195840799</v>
+        <v>11285.7464785985</v>
       </c>
       <c r="D66" t="n">
-        <v>11423.4151318223</v>
+        <v>12245.7703781335</v>
       </c>
       <c r="E66" t="n">
-        <v>9646.51329620275</v>
+        <v>10795.1342514245</v>
       </c>
       <c r="F66"/>
       <c r="G66"/>
@@ -2094,13 +2094,13 @@
         <v>24</v>
       </c>
       <c r="C67" t="n">
-        <v>9172.87703470181</v>
+        <v>9984.36559832831</v>
       </c>
       <c r="D67" t="n">
-        <v>9111.39301461761</v>
+        <v>10116.0704852518</v>
       </c>
       <c r="E67" t="n">
-        <v>9577.83002069649</v>
+        <v>9149.15696560321</v>
       </c>
       <c r="F67"/>
       <c r="G67"/>
@@ -2114,13 +2114,13 @@
         <v>26</v>
       </c>
       <c r="C68" t="n">
-        <v>7137.16680693333</v>
+        <v>7640.24322167992</v>
       </c>
       <c r="D68" t="n">
-        <v>7229.50273099159</v>
+        <v>7808.47876051773</v>
       </c>
       <c r="E68" t="n">
-        <v>6615.57615885462</v>
+        <v>6712.81764608037</v>
       </c>
       <c r="F68"/>
       <c r="G68"/>
@@ -2134,13 +2134,13 @@
         <v>27</v>
       </c>
       <c r="C69" t="n">
-        <v>3477.26040793459</v>
+        <v>3720.39151933515</v>
       </c>
       <c r="D69" t="n">
-        <v>3485.43521272538</v>
+        <v>3752.36405066663</v>
       </c>
       <c r="E69" t="n">
-        <v>3403.33725813025</v>
+        <v>3441.61652928718</v>
       </c>
       <c r="F69"/>
       <c r="G69"/>
@@ -2154,13 +2154,13 @@
         <v>26</v>
       </c>
       <c r="C70" t="n">
-        <v>8564.31735027015</v>
+        <v>9344.76684357987</v>
       </c>
       <c r="D70" t="n">
-        <v>9175.26132778286</v>
+        <v>10139.7494990599</v>
       </c>
       <c r="E70" t="n">
-        <v>7710.32741700971</v>
+        <v>8208.51318632032</v>
       </c>
       <c r="F70"/>
       <c r="G70"/>
@@ -2174,13 +2174,13 @@
         <v>27</v>
       </c>
       <c r="C71" t="n">
-        <v>4982.70887069224</v>
+        <v>5222.49896684296</v>
       </c>
       <c r="D71" t="n">
-        <v>6060.65954845228</v>
+        <v>6472.69911556235</v>
       </c>
       <c r="E71" t="n">
-        <v>4218.92761016785</v>
+        <v>4359.30306093544</v>
       </c>
       <c r="F71"/>
       <c r="G71"/>
@@ -2194,13 +2194,13 @@
         <v>26</v>
       </c>
       <c r="C72" t="n">
-        <v>11958.9450855985</v>
+        <v>12750.1340828152</v>
       </c>
       <c r="D72" t="n">
-        <v>12035.9028677038</v>
+        <v>12908.8502334928</v>
       </c>
       <c r="E72" t="n">
-        <v>11361.4538344777</v>
+        <v>11622.427697514</v>
       </c>
       <c r="F72"/>
       <c r="G72"/>
@@ -2214,13 +2214,13 @@
         <v>27</v>
       </c>
       <c r="C73" t="n">
-        <v>7168.07541101899</v>
+        <v>7626.3109889937</v>
       </c>
       <c r="D73" t="n">
-        <v>7176.68105417807</v>
+        <v>7612.55200136796</v>
       </c>
       <c r="E73" t="n">
-        <v>6458.65838517075</v>
+        <v>8830.55288814607</v>
       </c>
       <c r="F73"/>
       <c r="G73"/>
@@ -2234,13 +2234,13 @@
         <v>26</v>
       </c>
       <c r="C74" t="n">
-        <v>11426.7481579529</v>
+        <v>12028.3057119169</v>
       </c>
       <c r="D74" t="n">
-        <v>11886.458876801</v>
+        <v>12160.3517536892</v>
       </c>
       <c r="E74" t="n">
-        <v>10745.0713783548</v>
+        <v>11831.069521626</v>
       </c>
       <c r="F74"/>
       <c r="G74"/>
@@ -2254,13 +2254,13 @@
         <v>27</v>
       </c>
       <c r="C75" t="n">
-        <v>7962.96408269252</v>
+        <v>7919.57639609747</v>
       </c>
       <c r="D75" t="n">
-        <v>8127.96090808794</v>
+        <v>8485.63779075076</v>
       </c>
       <c r="E75" t="n">
-        <v>7727.82284600485</v>
+        <v>7178.91847849001</v>
       </c>
       <c r="F75"/>
       <c r="G75"/>
@@ -2274,13 +2274,13 @@
         <v>26</v>
       </c>
       <c r="C76" t="n">
-        <v>12986.4914748801</v>
+        <v>14187.5434119526</v>
       </c>
       <c r="D76" t="n">
-        <v>12797.4478174059</v>
+        <v>14022.0802963975</v>
       </c>
       <c r="E76" t="n">
-        <v>13957.5418384379</v>
+        <v>14859.6754220086</v>
       </c>
       <c r="F76"/>
       <c r="G76"/>
@@ -2294,13 +2294,13 @@
         <v>27</v>
       </c>
       <c r="C77" t="n">
-        <v>6915.77424727235</v>
+        <v>7127.40348764791</v>
       </c>
       <c r="D77" t="n">
-        <v>7199.71746348962</v>
+        <v>7120.46437942797</v>
       </c>
       <c r="E77" t="n">
-        <v>5267.50490808495</v>
+        <v>7257.56726825267</v>
       </c>
       <c r="F77"/>
       <c r="G77"/>
@@ -2314,13 +2314,13 @@
         <v>26</v>
       </c>
       <c r="C78" t="n">
-        <v>8727.32440440337</v>
+        <v>9855.70205809764</v>
       </c>
       <c r="D78" t="n">
-        <v>9259.59288803478</v>
+        <v>10675.7244998766</v>
       </c>
       <c r="E78" t="n">
-        <v>7697.88542538847</v>
+        <v>8354.16330813254</v>
       </c>
       <c r="F78"/>
       <c r="G78"/>
@@ -2334,13 +2334,13 @@
         <v>27</v>
       </c>
       <c r="C79" t="n">
-        <v>5005.65347583123</v>
+        <v>5306.22940760717</v>
       </c>
       <c r="D79" t="n">
-        <v>6164.73233569801</v>
+        <v>6514.69539771278</v>
       </c>
       <c r="E79" t="n">
-        <v>3590.85801899289</v>
+        <v>3829.59712943547</v>
       </c>
       <c r="F79"/>
       <c r="G79"/>
@@ -2354,13 +2354,13 @@
         <v>26</v>
       </c>
       <c r="C80" t="n">
-        <v>8437.27097772623</v>
+        <v>9460.55532887213</v>
       </c>
       <c r="D80" t="n">
-        <v>8674.46258108356</v>
+        <v>10168.3617559719</v>
       </c>
       <c r="E80" t="n">
-        <v>8123.01829074927</v>
+        <v>8527.20438519905</v>
       </c>
       <c r="F80"/>
       <c r="G80"/>
@@ -2374,13 +2374,13 @@
         <v>27</v>
       </c>
       <c r="C81" t="n">
-        <v>5210.09428079692</v>
+        <v>5640.47778736154</v>
       </c>
       <c r="D81" t="n">
-        <v>6225.59317596698</v>
+        <v>6750.96846510925</v>
       </c>
       <c r="E81" t="n">
-        <v>4650.82911832053</v>
+        <v>5029.52388895789</v>
       </c>
       <c r="F81"/>
       <c r="G81"/>
@@ -2394,13 +2394,13 @@
         <v>26</v>
       </c>
       <c r="C82" t="n">
-        <v>10170.0895212695</v>
+        <v>10344.6104625216</v>
       </c>
       <c r="D82" t="n">
-        <v>10448.8794856383</v>
+        <v>10916.0536731221</v>
       </c>
       <c r="E82" t="n">
-        <v>9651.41990247346</v>
+        <v>9172.86381698437</v>
       </c>
       <c r="F82"/>
       <c r="G82"/>
@@ -2414,13 +2414,13 @@
         <v>27</v>
       </c>
       <c r="C83" t="n">
-        <v>5081.7400912135</v>
+        <v>5411.51620498643</v>
       </c>
       <c r="D83" t="n">
-        <v>6445.25154733113</v>
+        <v>6899.43996364985</v>
       </c>
       <c r="E83" t="n">
-        <v>4183.47569976059</v>
+        <v>4415.78700360736</v>
       </c>
       <c r="F83"/>
       <c r="G83"/>
@@ -2434,13 +2434,13 @@
         <v>26</v>
       </c>
       <c r="C84" t="n">
-        <v>11615.3987859506</v>
+        <v>11962.5586351303</v>
       </c>
       <c r="D84" t="n">
-        <v>12566.7175414288</v>
+        <v>12467.467414477</v>
       </c>
       <c r="E84" t="n">
-        <v>10165.4765112576</v>
+        <v>11241.9066019021</v>
       </c>
       <c r="F84"/>
       <c r="G84"/>
@@ -2454,13 +2454,13 @@
         <v>27</v>
       </c>
       <c r="C85" t="n">
-        <v>6650.47193015867</v>
+        <v>7461.86819182975</v>
       </c>
       <c r="D85" t="n">
-        <v>6713.36910899484</v>
+        <v>7663.47166268111</v>
       </c>
       <c r="E85" t="n">
-        <v>6523.67331394981</v>
+        <v>7114.29623180533</v>
       </c>
       <c r="F85"/>
       <c r="G85"/>
@@ -2474,13 +2474,13 @@
         <v>26</v>
       </c>
       <c r="C86" t="n">
-        <v>11015.4717131736</v>
+        <v>12078.028574054</v>
       </c>
       <c r="D86" t="n">
-        <v>11994.9274273956</v>
+        <v>12894.0349366861</v>
       </c>
       <c r="E86" t="n">
-        <v>10448.1210514408</v>
+        <v>11646.5637173898</v>
       </c>
       <c r="F86"/>
       <c r="G86"/>
@@ -2494,13 +2494,13 @@
         <v>27</v>
       </c>
       <c r="C87" t="n">
-        <v>6767.3021524655</v>
+        <v>7084.34051179326</v>
       </c>
       <c r="D87" t="n">
-        <v>8419.15143091561</v>
+        <v>8249.78858654573</v>
       </c>
       <c r="E87" t="n">
-        <v>5921.44497303624</v>
+        <v>6590.67207187209</v>
       </c>
       <c r="F87"/>
       <c r="G87"/>
@@ -2514,13 +2514,13 @@
         <v>26</v>
       </c>
       <c r="C88" t="n">
-        <v>11205.0423956727</v>
+        <v>11964.5901796448</v>
       </c>
       <c r="D88" t="n">
-        <v>11375.899591128</v>
+        <v>12595.1443139563</v>
       </c>
       <c r="E88" t="n">
-        <v>10534.1047221158</v>
+        <v>9648.52853265066</v>
       </c>
       <c r="F88"/>
       <c r="G88"/>
@@ -2534,13 +2534,13 @@
         <v>27</v>
       </c>
       <c r="C89" t="n">
-        <v>7078.8281944047</v>
+        <v>7947.57270173567</v>
       </c>
       <c r="D89" t="n">
-        <v>7135.98813716191</v>
+        <v>7992.47143233291</v>
       </c>
       <c r="E89" t="n">
-        <v>6158.86588875337</v>
+        <v>7193.68539023866</v>
       </c>
       <c r="F89"/>
       <c r="G89"/>
@@ -2554,13 +2554,13 @@
         <v>28</v>
       </c>
       <c r="C90" t="n">
-        <v>37.9983096307999</v>
+        <v>38.3781609565843</v>
       </c>
       <c r="D90" t="n">
-        <v>39.0573937572364</v>
+        <v>39.2215994336583</v>
       </c>
       <c r="E90" t="n">
-        <v>31.6052137561456</v>
+        <v>33.0518218025296</v>
       </c>
       <c r="F90"/>
       <c r="G90"/>
@@ -2574,13 +2574,13 @@
         <v>28</v>
       </c>
       <c r="C91" t="n">
-        <v>44.4657132749101</v>
+        <v>43.9099483099288</v>
       </c>
       <c r="D91" t="n">
-        <v>48.3580584934047</v>
+        <v>47.8651110749305</v>
       </c>
       <c r="E91" t="n">
-        <v>40.9075910156561</v>
+        <v>40.3203390461722</v>
       </c>
       <c r="F91"/>
       <c r="G91"/>
@@ -2594,13 +2594,13 @@
         <v>28</v>
       </c>
       <c r="C92" t="n">
-        <v>44.1045920386537</v>
+        <v>43.4008259912735</v>
       </c>
       <c r="D92" t="n">
-        <v>44.2199974715759</v>
+        <v>43.4535043334525</v>
       </c>
       <c r="E92" t="n">
-        <v>40.8930703877111</v>
+        <v>42.0267288726156</v>
       </c>
       <c r="F92"/>
       <c r="G92"/>
@@ -2614,13 +2614,13 @@
         <v>28</v>
       </c>
       <c r="C93" t="n">
-        <v>43.9822087627889</v>
+        <v>43.0304257105274</v>
       </c>
       <c r="D93" t="n">
-        <v>47.0659497712246</v>
+        <v>46.0400717891666</v>
       </c>
       <c r="E93" t="n">
-        <v>39.4737934803618</v>
+        <v>38.7383999084843</v>
       </c>
       <c r="F93"/>
       <c r="G93"/>
@@ -2634,13 +2634,13 @@
         <v>28</v>
       </c>
       <c r="C94" t="n">
-        <v>46.6146204287516</v>
+        <v>47.1750048885413</v>
       </c>
       <c r="D94" t="n">
-        <v>47.4845766211807</v>
+        <v>47.992477604179</v>
       </c>
       <c r="E94" t="n">
-        <v>42.3880557320371</v>
+        <v>43.2595947016869</v>
       </c>
       <c r="F94"/>
       <c r="G94"/>
@@ -2654,13 +2654,13 @@
         <v>28</v>
       </c>
       <c r="C95" t="n">
-        <v>43.6328366881674</v>
+        <v>43.1871068875735</v>
       </c>
       <c r="D95" t="n">
-        <v>46.1597746681121</v>
+        <v>45.7050873887678</v>
       </c>
       <c r="E95" t="n">
-        <v>39.5827130715668</v>
+        <v>39.3200547024867</v>
       </c>
       <c r="F95"/>
       <c r="G95"/>
@@ -2674,13 +2674,13 @@
         <v>28</v>
       </c>
       <c r="C96" t="n">
-        <v>40.9418117423545</v>
+        <v>41.2867377591521</v>
       </c>
       <c r="D96" t="n">
-        <v>45.531596497111</v>
+        <v>46.199998937233</v>
       </c>
       <c r="E96" t="n">
-        <v>37.7650298715022</v>
+        <v>37.8857858535329</v>
       </c>
       <c r="F96"/>
       <c r="G96"/>
@@ -2694,13 +2694,13 @@
         <v>28</v>
       </c>
       <c r="C97" t="n">
-        <v>36.3802647514094</v>
+        <v>35.4381164557312</v>
       </c>
       <c r="D97" t="n">
-        <v>42.4118803205383</v>
+        <v>41.5995247488327</v>
       </c>
       <c r="E97" t="n">
-        <v>31.2814645145938</v>
+        <v>30.2356454217136</v>
       </c>
       <c r="F97"/>
       <c r="G97"/>
@@ -2714,13 +2714,13 @@
         <v>28</v>
       </c>
       <c r="C98" t="n">
-        <v>42.4175363404098</v>
+        <v>41.7321369963534</v>
       </c>
       <c r="D98" t="n">
-        <v>44.0839325357466</v>
+        <v>43.5172655892123</v>
       </c>
       <c r="E98" t="n">
-        <v>39.703065280884</v>
+        <v>39.0507700419813</v>
       </c>
       <c r="F98"/>
       <c r="G98"/>
@@ -2734,13 +2734,13 @@
         <v>28</v>
       </c>
       <c r="C99" t="n">
-        <v>34.1899586812973</v>
+        <v>32.4162646621837</v>
       </c>
       <c r="D99" t="n">
-        <v>35.2503065375712</v>
+        <v>33.1933488405594</v>
       </c>
       <c r="E99" t="n">
-        <v>33.5792706525881</v>
+        <v>32.0074906295491</v>
       </c>
       <c r="F99"/>
       <c r="G99"/>
@@ -2754,13 +2754,13 @@
         <v>28</v>
       </c>
       <c r="C100" t="n">
-        <v>51.0295397157301</v>
+        <v>51.2059415916413</v>
       </c>
       <c r="D100" t="n">
-        <v>52.4717583006934</v>
+        <v>52.5758445537932</v>
       </c>
       <c r="E100" t="n">
-        <v>42.2145791971728</v>
+        <v>42.7383003821113</v>
       </c>
       <c r="F100"/>
       <c r="G100"/>
